--- a/result_pred.xlsx
+++ b/result_pred.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6bf1f77a0bc72354/Projects/federated_imputation_pc2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_B273495A8CB7C033C7EA31D045B9DF1646486325" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79CB27E0-809A-4801-9171-87DFFA8E005D}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_FBE36B52B35F4A11E1D928B3F5DBCA1646480F6C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80C12CE9-707B-4D63-A431-EA9AA58E867F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="24">
   <si>
     <t>n_clients</t>
   </si>
@@ -459,12 +459,12 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="F10" sqref="F1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -510,13 +510,13 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>0.75049999999999994</v>
+        <v>0.34050730207532659</v>
       </c>
       <c r="G2">
-        <v>0.1619318181818182</v>
+        <v>0.16660525850179481</v>
       </c>
       <c r="H2">
-        <v>0.5767591144981502</v>
+        <v>0.68862596418712008</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -536,13 +536,13 @@
         <v>11</v>
       </c>
       <c r="F3">
-        <v>0.75049999999999994</v>
+        <v>0.60261337432744044</v>
       </c>
       <c r="G3">
-        <v>0.24449877750611251</v>
+        <v>0.33747501727483498</v>
       </c>
       <c r="H3">
-        <v>0.59563497414549282</v>
+        <v>0.87561875969745162</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -562,13 +562,13 @@
         <v>11</v>
       </c>
       <c r="F4">
-        <v>0.755</v>
+        <v>0.61798616448885468</v>
       </c>
       <c r="G4">
-        <v>0.24378109452736321</v>
+        <v>0.35604207318037329</v>
       </c>
       <c r="H4">
-        <v>0.59871308239396848</v>
+        <v>0.88726527196172111</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="F5">
-        <v>0.751</v>
+        <v>0.64104534973097616</v>
       </c>
       <c r="G5">
-        <v>0.25692695214105798</v>
+        <v>0.4052300566940934</v>
       </c>
       <c r="H5">
-        <v>0.5945535307790798</v>
+        <v>0.90492164695111443</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -614,13 +614,13 @@
         <v>11</v>
       </c>
       <c r="F6">
-        <v>0.75049999999999994</v>
+        <v>0.57571099154496541</v>
       </c>
       <c r="G6">
-        <v>0.26724137931034481</v>
+        <v>0.32406665321138772</v>
       </c>
       <c r="H6">
-        <v>0.61211897479168864</v>
+        <v>0.86681627748297063</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -640,13 +640,13 @@
         <v>11</v>
       </c>
       <c r="F7">
-        <v>0.75049999999999994</v>
+        <v>0.56571867794004616</v>
       </c>
       <c r="G7">
-        <v>0.2914798206278027</v>
+        <v>0.35512035371469219</v>
       </c>
       <c r="H7">
-        <v>0.62098614283864206</v>
+        <v>0.84767565678667922</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -666,13 +666,13 @@
         <v>11</v>
       </c>
       <c r="F8">
-        <v>0.75349999999999995</v>
+        <v>0.5249807840122982</v>
       </c>
       <c r="G8">
-        <v>0.30884184308841839</v>
+        <v>0.32253398847817139</v>
       </c>
       <c r="H8">
-        <v>0.62064702356077905</v>
+        <v>0.85392723074825327</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -692,13 +692,13 @@
         <v>18</v>
       </c>
       <c r="F9">
-        <v>0.75049999999999994</v>
+        <v>0.35511145272867017</v>
       </c>
       <c r="G9">
-        <v>3.9920159680638719E-3</v>
+        <v>0.14536614780300919</v>
       </c>
       <c r="H9">
-        <v>0.55347336912332323</v>
+        <v>0.65742032555398899</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -718,13 +718,13 @@
         <v>18</v>
       </c>
       <c r="F10">
-        <v>0.75049999999999994</v>
+        <v>0.54035357417371255</v>
       </c>
       <c r="G10">
-        <v>4.1984732824427481E-2</v>
+        <v>0.31768244359837322</v>
       </c>
       <c r="H10">
-        <v>0.56051343192714542</v>
+        <v>0.85501283572067754</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -744,13 +744,13 @@
         <v>18</v>
       </c>
       <c r="F11">
-        <v>0.75049999999999994</v>
+        <v>0.65411222136817837</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.32414132098038001</v>
       </c>
       <c r="H11">
-        <v>0.58155685121074929</v>
+        <v>0.90975216143795401</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -770,13 +770,13 @@
         <v>18</v>
       </c>
       <c r="F12">
-        <v>0.752</v>
+        <v>0.6502690238278247</v>
       </c>
       <c r="G12">
-        <v>0.14453781512605041</v>
+        <v>0.32803236173948158</v>
       </c>
       <c r="H12">
-        <v>0.60210761296076498</v>
+        <v>0.8952411503022738</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -796,13 +796,13 @@
         <v>18</v>
       </c>
       <c r="F13">
-        <v>0.753</v>
+        <v>0.59492697924673332</v>
       </c>
       <c r="G13">
-        <v>0.17472698907956319</v>
+        <v>0.30879764378002239</v>
       </c>
       <c r="H13">
-        <v>0.61671510909894411</v>
+        <v>0.87439940992482545</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -822,13 +822,13 @@
         <v>18</v>
       </c>
       <c r="F14">
-        <v>0.751</v>
+        <v>0.53036126056879329</v>
       </c>
       <c r="G14">
-        <v>0.13175675675675669</v>
+        <v>0.31538784200518749</v>
       </c>
       <c r="H14">
-        <v>0.63215705227910857</v>
+        <v>0.84896629677277158</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -848,13 +848,13 @@
         <v>18</v>
       </c>
       <c r="F15">
-        <v>0.75249999999999995</v>
+        <v>0.50115295926210612</v>
       </c>
       <c r="G15">
-        <v>9.236234458259325E-2</v>
+        <v>0.26098901250281142</v>
       </c>
       <c r="H15">
-        <v>0.63616440075353908</v>
+        <v>0.81777437122655439</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -874,13 +874,13 @@
         <v>19</v>
       </c>
       <c r="F16">
-        <v>0.75049999999999994</v>
+        <v>0.34973097617217519</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.19131622430033829</v>
       </c>
       <c r="H16">
-        <v>0.55659086327218055</v>
+        <v>0.63868863899279582</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -900,13 +900,13 @@
         <v>19</v>
       </c>
       <c r="F17">
-        <v>0.75049999999999994</v>
+        <v>0.64950038431975399</v>
       </c>
       <c r="G17">
-        <v>6.3314711359404099E-2</v>
+        <v>0.39352831709809838</v>
       </c>
       <c r="H17">
-        <v>0.60218905499206266</v>
+        <v>0.9125631809398097</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -926,13 +926,13 @@
         <v>19</v>
       </c>
       <c r="F18">
-        <v>0.75049999999999994</v>
+        <v>0.73635664873174478</v>
       </c>
       <c r="G18">
-        <v>0.20814479638009051</v>
+        <v>0.51304927911184928</v>
       </c>
       <c r="H18">
-        <v>0.63399684111727783</v>
+        <v>0.95257312823637097</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -952,13 +952,13 @@
         <v>19</v>
       </c>
       <c r="F19">
-        <v>0.754</v>
+        <v>0.69331283627978479</v>
       </c>
       <c r="G19">
-        <v>0.31422018348623848</v>
+        <v>0.49199108471145181</v>
       </c>
       <c r="H19">
-        <v>0.64715707230583763</v>
+        <v>0.93463520473996486</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -978,13 +978,13 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>0.75449999999999995</v>
+        <v>0.66179861644888549</v>
       </c>
       <c r="G20">
-        <v>0.32394366197183089</v>
+        <v>0.41717688349844251</v>
       </c>
       <c r="H20">
-        <v>0.64575253104476782</v>
+        <v>0.90440664727763809</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -1004,13 +1004,13 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <v>0.75349999999999995</v>
+        <v>0.59415833973866261</v>
       </c>
       <c r="G21">
-        <v>0.28758169934640532</v>
+        <v>0.36009738702575689</v>
       </c>
       <c r="H21">
-        <v>0.64241073753102473</v>
+        <v>0.89133422658631112</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -1030,13 +1030,13 @@
         <v>19</v>
       </c>
       <c r="F22">
-        <v>0.752</v>
+        <v>0.46656418139892392</v>
       </c>
       <c r="G22">
-        <v>0.1074523396880416</v>
+        <v>0.2799020561862065</v>
       </c>
       <c r="H22">
-        <v>0.63200217890811605</v>
+        <v>0.83452819246000798</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -1056,13 +1056,13 @@
         <v>20</v>
       </c>
       <c r="F23">
-        <v>0.75049999999999994</v>
+        <v>0.35434281322059952</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.2006960996412398</v>
       </c>
       <c r="H23">
-        <v>0.55413959164164439</v>
+        <v>0.63143553645454398</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -1082,13 +1082,13 @@
         <v>20</v>
       </c>
       <c r="F24">
-        <v>0.75349999999999995</v>
+        <v>0.85703305149884701</v>
       </c>
       <c r="G24">
-        <v>0.31904761904761908</v>
+        <v>0.73780200688009601</v>
       </c>
       <c r="H24">
-        <v>0.66778860852951738</v>
+        <v>0.98122086983497003</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -1108,13 +1108,13 @@
         <v>20</v>
       </c>
       <c r="F25">
-        <v>0.754</v>
+        <v>0.86241352805534199</v>
       </c>
       <c r="G25">
-        <v>0.29792429792429792</v>
+        <v>0.74059386576107622</v>
       </c>
       <c r="H25">
-        <v>0.66663239870814239</v>
+        <v>0.98198833054863255</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -1134,13 +1134,13 @@
         <v>20</v>
       </c>
       <c r="F26">
-        <v>0.754</v>
+        <v>0.85857033051498843</v>
       </c>
       <c r="G26">
-        <v>0.33592880978865408</v>
+        <v>0.70353263353726814</v>
       </c>
       <c r="H26">
-        <v>0.67030797103867956</v>
+        <v>0.98277720598065377</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -1160,13 +1160,13 @@
         <v>20</v>
       </c>
       <c r="F27">
-        <v>0.754</v>
+        <v>0.86164488854727128</v>
       </c>
       <c r="G27">
-        <v>0.33681765389082458</v>
+        <v>0.75106376769571104</v>
       </c>
       <c r="H27">
-        <v>0.66863507160890745</v>
+        <v>0.98302026394353226</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -1186,13 +1186,13 @@
         <v>20</v>
       </c>
       <c r="F28">
-        <v>0.755</v>
+        <v>0.85242121445042274</v>
       </c>
       <c r="G28">
-        <v>0.35321100917431192</v>
+        <v>0.72192099664480336</v>
       </c>
       <c r="H28">
-        <v>0.67095550194326026</v>
+        <v>0.98221053147792803</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -1212,13 +1212,13 @@
         <v>20</v>
       </c>
       <c r="F29">
-        <v>0.75149999999999995</v>
+        <v>0.48501152959262112</v>
       </c>
       <c r="G29">
-        <v>8.2289803220035776E-2</v>
+        <v>0.2859072626666469</v>
       </c>
       <c r="H29">
-        <v>0.62999950600735122</v>
+        <v>0.83869610949716</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -1238,13 +1238,13 @@
         <v>21</v>
       </c>
       <c r="F30">
-        <v>0.75049999999999994</v>
+        <v>0.35434281322059952</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>0.2006960996412398</v>
       </c>
       <c r="H30">
-        <v>0.55085520808438992</v>
+        <v>0.63143553645454398</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -1264,13 +1264,13 @@
         <v>21</v>
       </c>
       <c r="F31">
-        <v>0.75349999999999995</v>
+        <v>0.85703305149884701</v>
       </c>
       <c r="G31">
-        <v>0.35268346111719612</v>
+        <v>0.73780200688009601</v>
       </c>
       <c r="H31">
-        <v>0.66923186813333535</v>
+        <v>0.98122086983497003</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -1290,13 +1290,13 @@
         <v>21</v>
       </c>
       <c r="F32">
-        <v>0.75349999999999995</v>
+        <v>0.86241352805534199</v>
       </c>
       <c r="G32">
-        <v>0.33333333333333343</v>
+        <v>0.74059386576107622</v>
       </c>
       <c r="H32">
-        <v>0.66742278694631096</v>
+        <v>0.98198833054863255</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -1316,13 +1316,13 @@
         <v>21</v>
       </c>
       <c r="F33">
-        <v>0.754</v>
+        <v>0.85857033051498843</v>
       </c>
       <c r="G33">
-        <v>0.29479034307496832</v>
+        <v>0.70353263353726814</v>
       </c>
       <c r="H33">
-        <v>0.67065376589287828</v>
+        <v>0.98277720598065377</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
@@ -1342,13 +1342,13 @@
         <v>21</v>
       </c>
       <c r="F34">
-        <v>0.75449999999999995</v>
+        <v>0.86164488854727128</v>
       </c>
       <c r="G34">
-        <v>0.36141906873614188</v>
+        <v>0.75106376769571104</v>
       </c>
       <c r="H34">
-        <v>0.66883667401425095</v>
+        <v>0.98302026394353226</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -1368,13 +1368,13 @@
         <v>21</v>
       </c>
       <c r="F35">
-        <v>0.75549999999999995</v>
+        <v>0.85242121445042274</v>
       </c>
       <c r="G35">
-        <v>0.3406720741599073</v>
+        <v>0.72192099664480336</v>
       </c>
       <c r="H35">
-        <v>0.66621584274478329</v>
+        <v>0.98221053147792803</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -1394,13 +1394,13 @@
         <v>21</v>
       </c>
       <c r="F36">
-        <v>0.75249999999999995</v>
+        <v>0.48501152959262112</v>
       </c>
       <c r="G36">
-        <v>0.14873417721518989</v>
+        <v>0.2859072626666469</v>
       </c>
       <c r="H36">
-        <v>0.63491406530582817</v>
+        <v>0.83869610949716</v>
       </c>
     </row>
   </sheetData>
@@ -1410,16 +1410,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:H25"/>
+      <selection activeCell="F1" sqref="F1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="5" max="5" width="14.1796875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1464,13 +1461,13 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>0.75183333333333335</v>
+        <v>0.52933640789136571</v>
       </c>
       <c r="G2">
-        <v>0.26425621429475621</v>
+        <v>0.39701340165797983</v>
       </c>
       <c r="H2">
-        <v>0.62760341914119155</v>
+        <v>0.87621440614053236</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1490,13 +1487,13 @@
         <v>11</v>
       </c>
       <c r="F3">
-        <v>0.751</v>
+        <v>0.56853702280297203</v>
       </c>
       <c r="G3">
-        <v>0.25344416295695238</v>
+        <v>0.34159647029364471</v>
       </c>
       <c r="H3">
-        <v>0.62833951269182819</v>
+        <v>0.85809904412824878</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1516,13 +1513,13 @@
         <v>11</v>
       </c>
       <c r="F4">
-        <v>0.75149999999999995</v>
+        <v>0.55316423264155778</v>
       </c>
       <c r="G4">
-        <v>0.18880087032497361</v>
+        <v>0.31722650947217412</v>
       </c>
       <c r="H4">
-        <v>0.63769021498471068</v>
+        <v>0.86012692818903469</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1542,13 +1539,13 @@
         <v>11</v>
       </c>
       <c r="F5">
-        <v>0.75083333333333313</v>
+        <v>0.54470919805277995</v>
       </c>
       <c r="G5">
-        <v>0.26241938389577701</v>
+        <v>0.33247352301870292</v>
       </c>
       <c r="H5">
-        <v>0.62862611743584884</v>
+        <v>0.854615651164785</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1568,18 +1565,18 @@
         <v>11</v>
       </c>
       <c r="F6">
-        <v>0.75199999999999989</v>
+        <v>0.50038431975403541</v>
       </c>
       <c r="G6">
-        <v>0.25410235491765232</v>
+        <v>0.34259042206520712</v>
       </c>
       <c r="H6">
-        <v>0.6227763098927146</v>
+        <v>0.85775790043475053</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1591,21 +1588,21 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F7">
-        <v>0.75233333333333319</v>
+        <v>0.56981808864975658</v>
       </c>
       <c r="G7">
-        <v>0.27802901741267388</v>
+        <v>0.43367817075185849</v>
       </c>
       <c r="H7">
-        <v>0.62648993300836631</v>
+        <v>0.91184837521234108</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1620,18 +1617,18 @@
         <v>18</v>
       </c>
       <c r="F8">
-        <v>0.75233333333333341</v>
+        <v>0.61644888547271326</v>
       </c>
       <c r="G8">
-        <v>0.27420028641487959</v>
+        <v>0.41469166982465788</v>
       </c>
       <c r="H8">
-        <v>0.63568731956473468</v>
+        <v>0.89973043524461216</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1646,18 +1643,18 @@
         <v>18</v>
       </c>
       <c r="F9">
-        <v>0.75283333333333324</v>
+        <v>0.58519087881117093</v>
       </c>
       <c r="G9">
-        <v>0.1910954927052706</v>
+        <v>0.35871408940670563</v>
       </c>
       <c r="H9">
-        <v>0.63240582875722584</v>
+        <v>0.88645226538900701</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1672,18 +1669,18 @@
         <v>18</v>
       </c>
       <c r="F10">
-        <v>0.75349999999999995</v>
+        <v>0.57289264668203943</v>
       </c>
       <c r="G10">
-        <v>0.18910752753917251</v>
+        <v>0.30902585463370458</v>
       </c>
       <c r="H10">
-        <v>0.6376417057966699</v>
+        <v>0.84758634428684865</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -1698,18 +1695,18 @@
         <v>18</v>
       </c>
       <c r="F11">
-        <v>0.75250000000000006</v>
+        <v>0.5003843197540353</v>
       </c>
       <c r="G11">
-        <v>0.15308942967076519</v>
+        <v>0.38688355218887888</v>
       </c>
       <c r="H11">
-        <v>0.62613879769309888</v>
+        <v>0.88521092274425295</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1721,21 +1718,21 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12">
-        <v>0.75166666666666659</v>
+        <v>0.66769151934409432</v>
       </c>
       <c r="G12">
-        <v>0.1302632320766115</v>
+        <v>0.40417065246282019</v>
       </c>
       <c r="H12">
-        <v>0.63793142580964723</v>
+        <v>0.89665361563483492</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1747,21 +1744,21 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13">
-        <v>0.751</v>
+        <v>0.64232641557776071</v>
       </c>
       <c r="G13">
-        <v>5.9425902099783899E-2</v>
+        <v>0.42791782127975309</v>
       </c>
       <c r="H13">
-        <v>0.6266341254572213</v>
+        <v>0.90159108679567679</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1776,18 +1773,18 @@
         <v>19</v>
       </c>
       <c r="F14">
-        <v>0.75066666666666659</v>
+        <v>0.62182936202920824</v>
       </c>
       <c r="G14">
-        <v>0.26912990251358287</v>
+        <v>0.44062138846723192</v>
       </c>
       <c r="H14">
-        <v>0.6491225844983326</v>
+        <v>0.9001514704743544</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1802,18 +1799,18 @@
         <v>19</v>
       </c>
       <c r="F15">
-        <v>0.75199999999999989</v>
+        <v>0.62516013323084818</v>
       </c>
       <c r="G15">
-        <v>0.2725651571615893</v>
+        <v>0.40203885408979279</v>
       </c>
       <c r="H15">
-        <v>0.6494570308727603</v>
+        <v>0.89831761876447536</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1828,18 +1825,18 @@
         <v>19</v>
       </c>
       <c r="F16">
-        <v>0.75249999999999995</v>
+        <v>0.62720983858570334</v>
       </c>
       <c r="G16">
-        <v>0.28875704838222221</v>
+        <v>0.40060610589623502</v>
       </c>
       <c r="H16">
-        <v>0.64924964296792564</v>
+        <v>0.89666993987322252</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -1851,21 +1848,21 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17">
-        <v>0.75383333333333324</v>
+        <v>0.864975659748911</v>
       </c>
       <c r="G17">
-        <v>0.24844000613560349</v>
+        <v>0.75706848269433413</v>
       </c>
       <c r="H17">
-        <v>0.64612235797377571</v>
+        <v>0.98381053708558375</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -1877,21 +1874,21 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18">
-        <v>0.754</v>
+        <v>0.87573661286190108</v>
       </c>
       <c r="G18">
-        <v>0.22328264132482459</v>
+        <v>0.77247483675702</v>
       </c>
       <c r="H18">
-        <v>0.64659966168179139</v>
+        <v>0.9843403960848317</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -1903,21 +1900,21 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F19">
-        <v>0.75233333333333319</v>
+        <v>0.8685626441199078</v>
       </c>
       <c r="G19">
-        <v>0.1087563418978776</v>
+        <v>0.75555288487622996</v>
       </c>
       <c r="H19">
-        <v>0.63947081371270187</v>
+        <v>0.98344867590096718</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -1932,18 +1929,18 @@
         <v>20</v>
       </c>
       <c r="F20">
-        <v>0.75366666666666671</v>
+        <v>0.86266974122469886</v>
       </c>
       <c r="G20">
-        <v>0.3539676127561735</v>
+        <v>0.73646138290956076</v>
       </c>
       <c r="H20">
-        <v>0.67658390287125447</v>
+        <v>0.98292585934728394</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -1958,18 +1955,18 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>0.75266666666666671</v>
+        <v>0.84934665641813989</v>
       </c>
       <c r="G21">
-        <v>0.34403386969394439</v>
+        <v>0.74842576424978358</v>
       </c>
       <c r="H21">
-        <v>0.66540053235496088</v>
+        <v>0.98108874447195282</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1981,21 +1978,21 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F22">
-        <v>0.75416666666666654</v>
+        <v>0.864975659748911</v>
       </c>
       <c r="G22">
-        <v>0.34268063783798469</v>
+        <v>0.75706848269433413</v>
       </c>
       <c r="H22">
-        <v>0.66630574050610658</v>
+        <v>0.98381053708558375</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -2007,21 +2004,21 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F23">
-        <v>0.75483333333333336</v>
+        <v>0.87573661286190108</v>
       </c>
       <c r="G23">
-        <v>0.32903607548637981</v>
+        <v>0.77247483675702</v>
       </c>
       <c r="H23">
-        <v>0.66567156075419776</v>
+        <v>0.9843403960848317</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -2033,21 +2030,21 @@
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F24">
-        <v>0.7543333333333333</v>
+        <v>0.8685626441199078</v>
       </c>
       <c r="G24">
-        <v>0.3214140917821926</v>
+        <v>0.75555288487622996</v>
       </c>
       <c r="H24">
-        <v>0.66673342243002554</v>
+        <v>0.98344867590096718</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -2059,21 +2056,21 @@
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25">
-        <v>0.755</v>
+        <v>0.86266974122469886</v>
       </c>
       <c r="G25">
-        <v>0.32201972060990108</v>
+        <v>0.73646138290956076</v>
       </c>
       <c r="H25">
-        <v>0.66362037866539214</v>
+        <v>0.98292585934728394</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -2088,18 +2085,18 @@
         <v>21</v>
       </c>
       <c r="F26">
-        <v>0.75416666666666676</v>
+        <v>0.86625672559569578</v>
       </c>
       <c r="G26">
-        <v>0.35413451119924488</v>
+        <v>0.70303585708063032</v>
       </c>
       <c r="H26">
-        <v>0.67601825903639401</v>
+        <v>0.98329548899170727</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -2114,117 +2111,13 @@
         <v>21</v>
       </c>
       <c r="F27">
-        <v>0.753</v>
+        <v>0.86369459390212666</v>
       </c>
       <c r="G27">
-        <v>0.32742450840636211</v>
+        <v>0.69711729232252939</v>
       </c>
       <c r="H27">
-        <v>0.66566666533155139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28">
-        <v>0.75399999999999989</v>
-      </c>
-      <c r="G28">
-        <v>0.33096443459592551</v>
-      </c>
-      <c r="H28">
-        <v>0.66614797438536855</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29">
-        <v>0.75466666666666671</v>
-      </c>
-      <c r="G29">
-        <v>0.33450441673938169</v>
-      </c>
-      <c r="H29">
-        <v>0.66626746720178087</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>11</v>
-      </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30">
-        <v>0.754</v>
-      </c>
-      <c r="G30">
-        <v>0.32519407068717782</v>
-      </c>
-      <c r="H30">
-        <v>0.66680151330865156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>15</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31">
-        <v>0.75383333333333324</v>
-      </c>
-      <c r="G31">
-        <v>0.32418903211686673</v>
-      </c>
-      <c r="H31">
-        <v>0.66187182270381317</v>
+        <v>0.98261889729587804</v>
       </c>
     </row>
   </sheetData>
@@ -2234,10 +2127,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F1" sqref="F1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2285,13 +2178,13 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>0.75233333333333319</v>
+        <v>0.48885472713297462</v>
       </c>
       <c r="G2">
-        <v>0.26490732244301779</v>
+        <v>0.36609036526059829</v>
       </c>
       <c r="H2">
-        <v>0.59726514988671553</v>
+        <v>0.85959044377510618</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -2311,13 +2204,13 @@
         <v>11</v>
       </c>
       <c r="F3">
-        <v>0.75200000000000011</v>
+        <v>0.61926723033563924</v>
       </c>
       <c r="G3">
-        <v>0.22813717570785641</v>
+        <v>0.3537916674468895</v>
       </c>
       <c r="H3">
-        <v>0.59919795175516477</v>
+        <v>0.88681218294366826</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -2337,13 +2230,13 @@
         <v>11</v>
       </c>
       <c r="F4">
-        <v>0.75283333333333335</v>
+        <v>0.60850627722264916</v>
       </c>
       <c r="G4">
-        <v>0.24665959995022391</v>
+        <v>0.34653473689317499</v>
       </c>
       <c r="H4">
-        <v>0.58336437476329517</v>
+        <v>0.88147820591070902</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -2363,13 +2256,13 @@
         <v>11</v>
       </c>
       <c r="F5">
-        <v>0.75116666666666665</v>
+        <v>0.6100435562387907</v>
       </c>
       <c r="G5">
-        <v>0.26176235059503461</v>
+        <v>0.35080971707149922</v>
       </c>
       <c r="H5">
-        <v>0.58084590233097777</v>
+        <v>0.8772383402832814</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -2389,18 +2282,18 @@
         <v>11</v>
       </c>
       <c r="F6">
-        <v>0.75166666666666659</v>
+        <v>0.35997950294645148</v>
       </c>
       <c r="G6">
-        <v>0.23233421800181189</v>
+        <v>0.29127211318261942</v>
       </c>
       <c r="H6">
-        <v>0.57390463805692671</v>
+        <v>0.84449075488939551</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -2412,21 +2305,21 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F7">
-        <v>0.75166666666666659</v>
+        <v>0.58186010760953111</v>
       </c>
       <c r="G7">
-        <v>0.25031545305801589</v>
+        <v>0.40768062234873881</v>
       </c>
       <c r="H7">
-        <v>0.58485703363199859</v>
+        <v>0.89634815200027873</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -2441,18 +2334,18 @@
         <v>18</v>
       </c>
       <c r="F8">
-        <v>0.75133333333333319</v>
+        <v>0.62285421470663582</v>
       </c>
       <c r="G8">
-        <v>0.2559647964298159</v>
+        <v>0.33392282882969332</v>
       </c>
       <c r="H8">
-        <v>0.61348813549817816</v>
+        <v>0.88126728991936065</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -2467,18 +2360,18 @@
         <v>18</v>
       </c>
       <c r="F9">
-        <v>0.75083333333333313</v>
+        <v>0.59287727389187805</v>
       </c>
       <c r="G9">
-        <v>0.17052571302877939</v>
+        <v>0.33405100680033117</v>
       </c>
       <c r="H9">
-        <v>0.5936398668979086</v>
+        <v>0.87960141148593518</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -2493,18 +2386,18 @@
         <v>18</v>
       </c>
       <c r="F10">
-        <v>0.75166666666666659</v>
+        <v>0.56981808864975658</v>
       </c>
       <c r="G10">
-        <v>0.12171092993287751</v>
+        <v>0.3130903715345375</v>
       </c>
       <c r="H10">
-        <v>0.58399721939993687</v>
+        <v>0.86465362237611043</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -2519,18 +2412,18 @@
         <v>18</v>
       </c>
       <c r="F11">
-        <v>0.75066666666666659</v>
+        <v>0.54445298488342309</v>
       </c>
       <c r="G11">
-        <v>0.10618176381204671</v>
+        <v>0.37471822852508357</v>
       </c>
       <c r="H11">
-        <v>0.58021216761749128</v>
+        <v>0.8674932390936515</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -2542,21 +2435,21 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12">
-        <v>0.75150000000000006</v>
+        <v>0.70868562644119903</v>
       </c>
       <c r="G12">
-        <v>6.0164971420214042E-2</v>
+        <v>0.49946948469391228</v>
       </c>
       <c r="H12">
-        <v>0.57113649906964714</v>
+        <v>0.93405866104007573</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -2568,21 +2461,21 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13">
-        <v>0.75083333333333335</v>
+        <v>0.66641045349730976</v>
       </c>
       <c r="G13">
-        <v>4.651569161948696E-2</v>
+        <v>0.43489951655198872</v>
       </c>
       <c r="H13">
-        <v>0.5776313898060389</v>
+        <v>0.92818908423293822</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -2597,18 +2490,18 @@
         <v>19</v>
       </c>
       <c r="F14">
-        <v>0.7513333333333333</v>
+        <v>0.65257494235203695</v>
       </c>
       <c r="G14">
-        <v>0.28412626702191929</v>
+        <v>0.39800149273072782</v>
       </c>
       <c r="H14">
-        <v>0.6371468230709697</v>
+        <v>0.91553789643238481</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -2623,18 +2516,18 @@
         <v>19</v>
       </c>
       <c r="F15">
-        <v>0.75116666666666665</v>
+        <v>0.62490392006149109</v>
       </c>
       <c r="G15">
-        <v>0.23570504318809041</v>
+        <v>0.38325032988939739</v>
       </c>
       <c r="H15">
-        <v>0.6283226012317773</v>
+        <v>0.90831546545469077</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -2649,18 +2542,18 @@
         <v>19</v>
       </c>
       <c r="F16">
-        <v>0.75149999999999995</v>
+        <v>0.57801691006917755</v>
       </c>
       <c r="G16">
-        <v>0.1624978772735016</v>
+        <v>0.36115294935210163</v>
       </c>
       <c r="H16">
-        <v>0.61899637605212643</v>
+        <v>0.8809620024020699</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -2672,21 +2565,21 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17">
-        <v>0.75249999999999995</v>
+        <v>0.86574429925698182</v>
       </c>
       <c r="G17">
-        <v>0.13680455644120709</v>
+        <v>0.7445695234526547</v>
       </c>
       <c r="H17">
-        <v>0.61586775594270937</v>
+        <v>0.98279400092538938</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -2698,21 +2591,21 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18">
-        <v>0.75149999999999995</v>
+        <v>0.86036382270048684</v>
       </c>
       <c r="G18">
-        <v>8.9404723463644198E-2</v>
+        <v>0.73114121735642301</v>
       </c>
       <c r="H18">
-        <v>0.60489043821598332</v>
+        <v>0.98170189656563966</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -2724,21 +2617,21 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F19">
-        <v>0.751</v>
+        <v>0.8544709198052779</v>
       </c>
       <c r="G19">
-        <v>6.4203479874827177E-2</v>
+        <v>0.73633286171542567</v>
       </c>
       <c r="H19">
-        <v>0.60272599384867898</v>
+        <v>0.98156570121061215</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -2753,18 +2646,18 @@
         <v>20</v>
       </c>
       <c r="F20">
-        <v>0.75266666666666671</v>
+        <v>0.85370228029720729</v>
       </c>
       <c r="G20">
-        <v>0.36054023200690638</v>
+        <v>0.73180356484831288</v>
       </c>
       <c r="H20">
-        <v>0.67669249224631811</v>
+        <v>0.98007177731213702</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -2779,18 +2672,18 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>0.7543333333333333</v>
+        <v>0.84114783499871892</v>
       </c>
       <c r="G21">
-        <v>0.35864105027314419</v>
+        <v>0.72473013969669731</v>
       </c>
       <c r="H21">
-        <v>0.66377347188269498</v>
+        <v>0.97813935386310102</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -2802,21 +2695,21 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F22">
-        <v>0.75266666666666671</v>
+        <v>0.86574429925698182</v>
       </c>
       <c r="G22">
-        <v>0.35029357735762678</v>
+        <v>0.7445695234526547</v>
       </c>
       <c r="H22">
-        <v>0.66605829914325654</v>
+        <v>0.98279400092538938</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -2828,21 +2721,21 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F23">
-        <v>0.75233333333333341</v>
+        <v>0.86036382270048684</v>
       </c>
       <c r="G23">
-        <v>0.3403487818034876</v>
+        <v>0.73114121735642301</v>
       </c>
       <c r="H23">
-        <v>0.66640498407430004</v>
+        <v>0.98170189656563966</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -2854,21 +2747,21 @@
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F24">
-        <v>0.754</v>
+        <v>0.8544709198052779</v>
       </c>
       <c r="G24">
-        <v>0.31127860460697038</v>
+        <v>0.73633286171542567</v>
       </c>
       <c r="H24">
-        <v>0.66556653168651314</v>
+        <v>0.98156570121061215</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -2880,21 +2773,21 @@
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25">
-        <v>0.753</v>
+        <v>0.85370228029720729</v>
       </c>
       <c r="G25">
-        <v>0.32577510567811863</v>
+        <v>0.73180356484831288</v>
       </c>
       <c r="H25">
-        <v>0.6639750742880387</v>
+        <v>0.98007177731213702</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -2909,18 +2802,18 @@
         <v>21</v>
       </c>
       <c r="F26">
-        <v>0.75250000000000006</v>
+        <v>0.85472713297463487</v>
       </c>
       <c r="G26">
-        <v>0.35459232632082133</v>
+        <v>0.62900648733608133</v>
       </c>
       <c r="H26">
-        <v>0.67619983471272993</v>
+        <v>0.98096517882824574</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -2935,117 +2828,13 @@
         <v>21</v>
       </c>
       <c r="F27">
-        <v>0.75250000000000006</v>
+        <v>0.85062772226492445</v>
       </c>
       <c r="G27">
-        <v>0.34363448124768309</v>
+        <v>0.64077941554073126</v>
       </c>
       <c r="H27">
-        <v>0.66269514378523864</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28">
-        <v>0.75266666666666671</v>
-      </c>
-      <c r="G28">
-        <v>0.35980982267249201</v>
-      </c>
-      <c r="H28">
-        <v>0.66725856776844827</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29">
-        <v>0.75266666666666671</v>
-      </c>
-      <c r="G29">
-        <v>0.33977488995691951</v>
-      </c>
-      <c r="H29">
-        <v>0.66498620158371369</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>11</v>
-      </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30">
-        <v>0.75383333333333324</v>
-      </c>
-      <c r="G30">
-        <v>0.31112336758105719</v>
-      </c>
-      <c r="H30">
-        <v>0.66301557144936096</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>15</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31">
-        <v>0.75266666666666671</v>
-      </c>
-      <c r="G31">
-        <v>0.33984914554430601</v>
-      </c>
-      <c r="H31">
-        <v>0.6642534458212449</v>
+        <v>0.98125358890091441</v>
       </c>
     </row>
   </sheetData>

--- a/result_pred.xlsx
+++ b/result_pred.xlsx
@@ -502,13 +502,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.3405073020753266</v>
+        <v>0.448</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1666052585017948</v>
+        <v>0.1344907304099668</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6886259641871201</v>
+        <v>0.6383291487974773</v>
       </c>
     </row>
     <row r="3">
@@ -536,13 +536,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.6026133743274404</v>
+        <v>0.474</v>
       </c>
       <c r="G3" t="n">
-        <v>0.337475017274835</v>
+        <v>0.1890953682439587</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8756187596974516</v>
+        <v>0.715427759399224</v>
       </c>
     </row>
     <row r="4">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.6179861644888547</v>
+        <v>0.5014999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3560420731803733</v>
+        <v>0.1975244937210691</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8872652719617211</v>
+        <v>0.7369293880300516</v>
       </c>
     </row>
     <row r="5">
@@ -604,13 +604,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.6410453497309762</v>
+        <v>0.498</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4052300566940934</v>
+        <v>0.183929645998031</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9049216469511144</v>
+        <v>0.741699215104726</v>
       </c>
     </row>
     <row r="6">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.5757109915449654</v>
+        <v>0.4695</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3240666532113877</v>
+        <v>0.1305351118462572</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8668162774829706</v>
+        <v>0.7258194016678686</v>
       </c>
     </row>
     <row r="7">
@@ -672,13 +672,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.5657186779400462</v>
+        <v>0.495</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3551203537146922</v>
+        <v>0.14990038238958</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8476756567866792</v>
+        <v>0.7124023417366621</v>
       </c>
     </row>
     <row r="8">
@@ -706,13 +706,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.5249807840122982</v>
+        <v>0.491</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3225339884781714</v>
+        <v>0.1479692496238897</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8539272307482533</v>
+        <v>0.6912341537188228</v>
       </c>
     </row>
     <row r="9">
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.3551114527286702</v>
+        <v>0.416</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1453661478030092</v>
+        <v>0.08674757534681161</v>
       </c>
       <c r="H9" t="n">
-        <v>0.657420325553989</v>
+        <v>0.6472431674108773</v>
       </c>
     </row>
     <row r="10">
@@ -774,13 +774,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.5403535741737125</v>
+        <v>0.435</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3176824435983732</v>
+        <v>0.1189649543009839</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8550128357206775</v>
+        <v>0.6680902806549981</v>
       </c>
     </row>
     <row r="11">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.6541122213681784</v>
+        <v>0.468</v>
       </c>
       <c r="G11" t="n">
-        <v>0.32414132098038</v>
+        <v>0.150765249096585</v>
       </c>
       <c r="H11" t="n">
-        <v>0.909752161437954</v>
+        <v>0.7027257012054148</v>
       </c>
     </row>
     <row r="12">
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.6502690238278247</v>
+        <v>0.4985</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3280323617394816</v>
+        <v>0.175228212884893</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8952411503022738</v>
+        <v>0.7402037402149325</v>
       </c>
     </row>
     <row r="13">
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.5949269792467333</v>
+        <v>0.49</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3087976437800224</v>
+        <v>0.1625251184055212</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8743994099248255</v>
+        <v>0.745384812700438</v>
       </c>
     </row>
     <row r="14">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.5303612605687933</v>
+        <v>0.49</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3153878420051875</v>
+        <v>0.1564054903155185</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8489662967727716</v>
+        <v>0.7590371747198068</v>
       </c>
     </row>
     <row r="15">
@@ -944,13 +944,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.5011529592621061</v>
+        <v>0.474</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2609890125028114</v>
+        <v>0.1396140435566165</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8177743712265544</v>
+        <v>0.7089349264448703</v>
       </c>
     </row>
     <row r="16">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.3497309761721752</v>
+        <v>0.414</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1913162243003383</v>
+        <v>0.08503892571947214</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6386886389927958</v>
+        <v>0.6522812907655638</v>
       </c>
     </row>
     <row r="17">
@@ -1012,13 +1012,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.649500384319754</v>
+        <v>0.5165</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3935283170980984</v>
+        <v>0.2156469749070456</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9125631809398097</v>
+        <v>0.7383858921221869</v>
       </c>
     </row>
     <row r="18">
@@ -1046,13 +1046,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.7363566487317448</v>
+        <v>0.5285</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5130492791118493</v>
+        <v>0.2527401522425323</v>
       </c>
       <c r="H18" t="n">
-        <v>0.952573128236371</v>
+        <v>0.7861480665408592</v>
       </c>
     </row>
     <row r="19">
@@ -1080,13 +1080,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.6933128362797848</v>
+        <v>0.537</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4919910847114518</v>
+        <v>0.2740208714258959</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9346352047399649</v>
+        <v>0.7979231344471774</v>
       </c>
     </row>
     <row r="20">
@@ -1114,13 +1114,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.6617986164488855</v>
+        <v>0.5305</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4171768834984425</v>
+        <v>0.2533372753688963</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9044066472776381</v>
+        <v>0.786613966891453</v>
       </c>
     </row>
     <row r="21">
@@ -1148,13 +1148,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.5941583397386626</v>
+        <v>0.503</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3600973870257569</v>
+        <v>0.196127457048257</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8913342265863111</v>
+        <v>0.7806844474463664</v>
       </c>
     </row>
     <row r="22">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.4665641813989239</v>
+        <v>0.4415</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2799020561862065</v>
+        <v>0.1149400131365586</v>
       </c>
       <c r="H22" t="n">
-        <v>0.834528192460008</v>
+        <v>0.7021889865162508</v>
       </c>
     </row>
     <row r="23">
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.3543428132205995</v>
+        <v>0.428</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2006960996412398</v>
+        <v>0.1026312947399822</v>
       </c>
       <c r="H23" t="n">
-        <v>0.631435536454544</v>
+        <v>0.651765285955599</v>
       </c>
     </row>
     <row r="24">
@@ -1250,13 +1250,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.857033051498847</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>0.737802006880096</v>
+        <v>0.2972142818100914</v>
       </c>
       <c r="H24" t="n">
-        <v>0.98122086983497</v>
+        <v>0.8156596960810276</v>
       </c>
     </row>
     <row r="25">
@@ -1284,13 +1284,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.862413528055342</v>
+        <v>0.555</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7405938657610762</v>
+        <v>0.2947947457107962</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9819883305486325</v>
+        <v>0.8149767691704791</v>
       </c>
     </row>
     <row r="26">
@@ -1318,13 +1318,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.8585703305149884</v>
+        <v>0.554</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7035326335372681</v>
+        <v>0.2888658742566051</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9827772059806538</v>
+        <v>0.8181898807208019</v>
       </c>
     </row>
     <row r="27">
@@ -1352,13 +1352,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.8616448885472713</v>
+        <v>0.553</v>
       </c>
       <c r="G27" t="n">
-        <v>0.751063767695711</v>
+        <v>0.2925948063875044</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9830202639435323</v>
+        <v>0.8175561751757264</v>
       </c>
     </row>
     <row r="28">
@@ -1386,13 +1386,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.8524212144504227</v>
+        <v>0.552</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7219209966448034</v>
+        <v>0.3017924444250434</v>
       </c>
       <c r="H28" t="n">
-        <v>0.982210531477928</v>
+        <v>0.8172656147562199</v>
       </c>
     </row>
     <row r="29">
@@ -1420,13 +1420,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.4850115295926211</v>
+        <v>0.473</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2859072626666469</v>
+        <v>0.1385785042751916</v>
       </c>
       <c r="H29" t="n">
-        <v>0.83869610949716</v>
+        <v>0.7088268510998291</v>
       </c>
     </row>
     <row r="30">
@@ -1454,13 +1454,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.3543428132205995</v>
+        <v>0.4175</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2006960996412398</v>
+        <v>0.08975045632232981</v>
       </c>
       <c r="H30" t="n">
-        <v>0.631435536454544</v>
+        <v>0.6634359474880939</v>
       </c>
     </row>
     <row r="31">
@@ -1488,13 +1488,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.857033051498847</v>
+        <v>0.556</v>
       </c>
       <c r="G31" t="n">
-        <v>0.737802006880096</v>
+        <v>0.2956973714456111</v>
       </c>
       <c r="H31" t="n">
-        <v>0.98122086983497</v>
+        <v>0.8153571494954125</v>
       </c>
     </row>
     <row r="32">
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.862413528055342</v>
+        <v>0.552</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7405938657610762</v>
+        <v>0.2922660845885929</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9819883305486325</v>
+        <v>0.8154470386141472</v>
       </c>
     </row>
     <row r="33">
@@ -1556,13 +1556,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.8585703305149884</v>
+        <v>0.553</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7035326335372681</v>
+        <v>0.2944647529038275</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9827772059806538</v>
+        <v>0.8198917819027076</v>
       </c>
     </row>
     <row r="34">
@@ -1590,13 +1590,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.8616448885472713</v>
+        <v>0.5555</v>
       </c>
       <c r="G34" t="n">
-        <v>0.751063767695711</v>
+        <v>0.2941815650894229</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9830202639435323</v>
+        <v>0.8180258869639183</v>
       </c>
     </row>
     <row r="35">
@@ -1624,13 +1624,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.8524212144504227</v>
+        <v>0.553</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7219209966448034</v>
+        <v>0.3011418790541951</v>
       </c>
       <c r="H35" t="n">
-        <v>0.982210531477928</v>
+        <v>0.8173432573213804</v>
       </c>
     </row>
     <row r="36">
@@ -1658,13 +1658,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.4850115295926211</v>
+        <v>0.462</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2859072626666469</v>
+        <v>0.1311858865403991</v>
       </c>
       <c r="H36" t="n">
-        <v>0.83869610949716</v>
+        <v>0.696153074931171</v>
       </c>
     </row>
     <row r="37">
@@ -1692,13 +1692,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.3758647194465796</v>
+        <v>0.4288333333333333</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1697164961836642</v>
+        <v>0.1042761710810422</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6557910948059517</v>
+        <v>0.6470498076276342</v>
       </c>
     </row>
     <row r="38">
@@ -1726,13 +1726,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.8506277222649244</v>
+        <v>0.5503333333333333</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7184682183586352</v>
+        <v>0.289440669800828</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9807314040977131</v>
+        <v>0.8109079741495746</v>
       </c>
     </row>
     <row r="39">
@@ -1760,13 +1760,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.8611324622085575</v>
+        <v>0.5511666666666667</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7207363914762768</v>
+        <v>0.2918223302410354</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9816166793870996</v>
+        <v>0.8142393869420798</v>
       </c>
     </row>
     <row r="40">
@@ -1794,13 +1794,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.8619011017166281</v>
+        <v>0.554</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7289972431121181</v>
+        <v>0.300015397794525</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9823801480906468</v>
+        <v>0.816964493709685</v>
       </c>
     </row>
     <row r="41">
@@ -1828,13 +1828,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.8621573148859851</v>
+        <v>0.5569999999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7517243961476788</v>
+        <v>0.298671681338512</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9824215524970507</v>
+        <v>0.8174643507903974</v>
       </c>
     </row>
     <row r="42">
@@ -1862,13 +1862,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.8557519856520625</v>
+        <v>0.5538333333333334</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7320787500654156</v>
+        <v>0.2976472762325904</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9818818229585827</v>
+        <v>0.8154550775812986</v>
       </c>
     </row>
     <row r="43">
@@ -1896,13 +1896,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.4955162695362542</v>
+        <v>0.4418333333333333</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2758692437028699</v>
+        <v>0.1138739804508365</v>
       </c>
       <c r="H43" t="n">
-        <v>0.813425676770307</v>
+        <v>0.6916499422655121</v>
       </c>
     </row>
   </sheetData>
@@ -1916,7 +1916,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1991,13 +1991,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.5293364078913657</v>
+        <v>0.4935</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3970134016579798</v>
+        <v>0.181901510042158</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8762144061405324</v>
+        <v>0.7374915137545601</v>
       </c>
     </row>
     <row r="3">
@@ -2025,13 +2025,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.568537022802972</v>
+        <v>0.4596666666666667</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3415964702936447</v>
+        <v>0.1345918313680214</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8580990441282488</v>
+        <v>0.7190361098211846</v>
       </c>
     </row>
     <row r="4">
@@ -2059,13 +2059,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.5531642326415578</v>
+        <v>0.49</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3172265094721741</v>
+        <v>0.1499055934012822</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8601269281890347</v>
+        <v>0.7174162621606056</v>
       </c>
     </row>
     <row r="5">
@@ -2093,13 +2093,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.54470919805278</v>
+        <v>0.4811666666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3324735230187029</v>
+        <v>0.1677503885344201</v>
       </c>
       <c r="H5" t="n">
-        <v>0.854615651164785</v>
+        <v>0.7147414852966206</v>
       </c>
     </row>
     <row r="6">
@@ -2127,18 +2127,18 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.5003843197540354</v>
+        <v>0.459</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3425904220652071</v>
+        <v>0.1524094988975314</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8577579004347505</v>
+        <v>0.713517066536097</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -2157,22 +2157,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>local</t>
+          <t>central</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.5698180886497566</v>
+        <v>0.4823333333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4336781707518585</v>
+        <v>0.1429987469092972</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9118483752123411</v>
+        <v>0.6986060392244019</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -2195,18 +2195,18 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.6164488854727133</v>
+        <v>0.4921666666666666</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4146916698246579</v>
+        <v>0.1865848526476379</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8997304352446122</v>
+        <v>0.7535630095085706</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2229,18 +2229,18 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.5851908788111709</v>
+        <v>0.4715</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3587140894067056</v>
+        <v>0.1607286210301936</v>
       </c>
       <c r="H9" t="n">
-        <v>0.886452265389007</v>
+        <v>0.7465163233463631</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2263,18 +2263,18 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.5728926466820394</v>
+        <v>0.475</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3090258546337046</v>
+        <v>0.1649829699062781</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8475863442868486</v>
+        <v>0.7558703529729246</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2297,18 +2297,18 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.5003843197540353</v>
+        <v>0.4961666666666666</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3868835521888789</v>
+        <v>0.1826063130909947</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8852109227442529</v>
+        <v>0.7597059756671709</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2327,22 +2327,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>simpleavg</t>
+          <t>local</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.6676915193440943</v>
+        <v>0.4876666666666667</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4041706524628202</v>
+        <v>0.1622406660668752</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8966536156348349</v>
+        <v>0.7513121502970003</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2361,22 +2361,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>simpleavg</t>
+          <t>local</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.6423264155777607</v>
+        <v>0.4898333333333333</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4279178212797531</v>
+        <v>0.163408174338883</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9015910867956768</v>
+        <v>0.7451787613635292</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -2399,18 +2399,18 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.6218293620292082</v>
+        <v>0.529</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4406213884672319</v>
+        <v>0.2676451445850855</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9001514704743544</v>
+        <v>0.7968223634445969</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -2433,18 +2433,18 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.6251601332308482</v>
+        <v>0.5111666666666667</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4020388540897928</v>
+        <v>0.2171910879918964</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8983176187644754</v>
+        <v>0.7720721627163135</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -2467,18 +2467,18 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.6272098385857033</v>
+        <v>0.5113333333333333</v>
       </c>
       <c r="G16" t="n">
-        <v>0.400606105896235</v>
+        <v>0.2089148175822267</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8966699398732225</v>
+        <v>0.7707189405574343</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2497,22 +2497,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fedmechw</t>
+          <t>simpleavg</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.864975659748911</v>
+        <v>0.5051666666666667</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7570684826943341</v>
+        <v>0.2031841190103694</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9838105370855837</v>
+        <v>0.7749873126204867</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -2531,22 +2531,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fedmechw</t>
+          <t>simpleavg</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.8757366128619011</v>
+        <v>0.5071666666666667</v>
       </c>
       <c r="G18" t="n">
-        <v>0.77247483675702</v>
+        <v>0.1860253317683536</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9843403960848317</v>
+        <v>0.7724823741998139</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -2565,22 +2565,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fedmechw</t>
+          <t>simpleavg</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.8685626441199078</v>
+        <v>0.5009999999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>0.75555288487623</v>
+        <v>0.1790029869846872</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9834486759009672</v>
+        <v>0.7680718309366851</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2603,18 +2603,18 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.8626697412246989</v>
+        <v>0.554</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7364613829095608</v>
+        <v>0.3056545660071819</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9829258593472839</v>
+        <v>0.8148662707662734</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2637,18 +2637,18 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.8493466564181399</v>
+        <v>0.556</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7484257642497836</v>
+        <v>0.3102726592021182</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9810887444719528</v>
+        <v>0.8154820830739707</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2667,22 +2667,22 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>fedmechw_p</t>
+          <t>fedmechw</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.864975659748911</v>
+        <v>0.5575</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7570684826943341</v>
+        <v>0.3025715825965475</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9838105370855837</v>
+        <v>0.8172459788831121</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2701,22 +2701,22 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>fedmechw_p</t>
+          <t>fedmechw</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.8757366128619011</v>
+        <v>0.5533333333333333</v>
       </c>
       <c r="G23" t="n">
-        <v>0.77247483675702</v>
+        <v>0.2927646184244238</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9843403960848317</v>
+        <v>0.8153676517344742</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2735,22 +2735,22 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>fedmechw_p</t>
+          <t>fedmechw</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.8685626441199078</v>
+        <v>0.5528333333333334</v>
       </c>
       <c r="G24" t="n">
-        <v>0.75555288487623</v>
+        <v>0.2905863762473427</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9834486759009672</v>
+        <v>0.8134632951876863</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2769,22 +2769,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>fedmechw_p</t>
+          <t>fedmechw</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.8626697412246989</v>
+        <v>0.5473333333333333</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7364613829095608</v>
+        <v>0.2786406946267253</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9829258593472839</v>
+        <v>0.8124397259291577</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2807,18 +2807,18 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.8662567255956958</v>
+        <v>0.5539999999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7030358570806303</v>
+        <v>0.3102593002102733</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9832954889917073</v>
+        <v>0.8134361792589213</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2841,18 +2841,18 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.8636945939021267</v>
+        <v>0.5538333333333334</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6971172923225294</v>
+        <v>0.3014252141548323</v>
       </c>
       <c r="H27" t="n">
-        <v>0.982618897295878</v>
+        <v>0.8147759661435945</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2871,22 +2871,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>fedmechw_new</t>
+          <t>fedmechw_p</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.865231872918268</v>
+        <v>0.5581666666666667</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7546285007066237</v>
+        <v>0.3009188648063534</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9832098414352957</v>
+        <v>0.8181079196842606</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2905,22 +2905,22 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>fedmechw_new</t>
+          <t>fedmechw_p</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.8639508070714834</v>
+        <v>0.5535</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7490314825727333</v>
+        <v>0.2957084220939024</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9831609776929389</v>
+        <v>0.8164603493285022</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2939,22 +2939,22 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>fedmechw_new</t>
+          <t>fedmechw_p</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.8560081988214194</v>
+        <v>0.553</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7380579100674952</v>
+        <v>0.2928617985329821</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9824565718693724</v>
+        <v>0.8145631944064178</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2973,22 +2973,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>fedmechw_new</t>
+          <t>fedmechw_p</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.8590827568537023</v>
+        <v>0.5485000000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7497545724750859</v>
+        <v>0.279927103182079</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9820709370648603</v>
+        <v>0.8127490306952959</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -3011,47 +3011,183 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.8565206251601332</v>
+        <v>0.5539999999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7361841921079565</v>
+        <v>0.3002540277365897</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9819398817220422</v>
+        <v>0.8133790369963892</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>sample-evenly</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>mnar_lr@sp=extremer1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.5 0.5</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>fedmechw_new</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.5523333333333335</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.3024578872077411</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8145751658556429</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>sample-evenly</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>mnar_lr@sp=extremer1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.5 0.5</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>fedmechw_new</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.5593333333333333</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.3078778960390482</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.817698636322214</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>9</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>sample-evenly</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>mnar_lr@sp=extremer1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.5 0.5</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>fedmechw_new</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.5531666666666667</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.294053512127618</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.8165524001931791</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>11</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>sample-evenly</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>mnar_lr@sp=extremer1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.5 0.5</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>fedmechw_new</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.5525</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.2940223370062675</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.8156052075655594</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
         <v>15</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>sample-evenly</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>sample-evenly</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>mnar_lr@sp=extremer1</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.5 0.5</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.5 0.5</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>fedmechw_new</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>0.8460158852165002</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.6846117690335302</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.980905019075346</v>
+      <c r="F37" t="n">
+        <v>0.5503333333333332</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.2787588242203769</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.8128186307253537</v>
       </c>
     </row>
   </sheetData>
@@ -3065,7 +3201,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3140,13 +3276,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.4888547271329746</v>
+        <v>0.5093333333333333</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3660903652605983</v>
+        <v>0.1957017406411137</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8595904437751062</v>
+        <v>0.7421812071439753</v>
       </c>
     </row>
     <row r="3">
@@ -3174,13 +3310,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.6192672303356392</v>
+        <v>0.4938333333333333</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3537916674468895</v>
+        <v>0.1911667046528904</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8868121829436683</v>
+        <v>0.7311729259765309</v>
       </c>
     </row>
     <row r="4">
@@ -3208,13 +3344,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.6085062772226492</v>
+        <v>0.4809999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.346534736893175</v>
+        <v>0.184597607164331</v>
       </c>
       <c r="H4" t="n">
-        <v>0.881478205910709</v>
+        <v>0.7241818712356031</v>
       </c>
     </row>
     <row r="5">
@@ -3242,13 +3378,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.6100435562387907</v>
+        <v>0.4823333333333333</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3508097170714992</v>
+        <v>0.1819687838520327</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8772383402832814</v>
+        <v>0.7175644692092812</v>
       </c>
     </row>
     <row r="6">
@@ -3276,18 +3412,18 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.3599795029464515</v>
+        <v>0.478</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2912721131826194</v>
+        <v>0.1793376869948257</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8444907548893955</v>
+        <v>0.7107199495833866</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -3306,22 +3442,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>local</t>
+          <t>central</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.5818601076095311</v>
+        <v>0.472</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4076806223487388</v>
+        <v>0.1817359345664207</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8963481520002787</v>
+        <v>0.7083216257445625</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -3344,18 +3480,18 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.6228542147066358</v>
+        <v>0.4956666666666666</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3339228288296933</v>
+        <v>0.18477375632836</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8812672899193607</v>
+        <v>0.7345292538934559</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -3378,18 +3514,18 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.5928772738918781</v>
+        <v>0.4586666666666666</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3340510068003312</v>
+        <v>0.1579423577847225</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8796014114859352</v>
+        <v>0.6975234823169355</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -3412,18 +3548,18 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.5698180886497566</v>
+        <v>0.449</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3130903715345375</v>
+        <v>0.147225363881676</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8646536223761104</v>
+        <v>0.6923374804380961</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -3446,18 +3582,18 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.5444529848834231</v>
+        <v>0.4448333333333334</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3747182285250836</v>
+        <v>0.147264931062964</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8674932390936515</v>
+        <v>0.6970337000171779</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -3476,22 +3612,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>simpleavg</t>
+          <t>local</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.708685626441199</v>
+        <v>0.4403333333333334</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4994694846939123</v>
+        <v>0.128250661090849</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9340586610400757</v>
+        <v>0.6826079444557779</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -3510,22 +3646,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>simpleavg</t>
+          <t>local</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.6664104534973098</v>
+        <v>0.4381666666666666</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4348995165519887</v>
+        <v>0.1219405437570778</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9281890842329382</v>
+        <v>0.6769028883963145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -3548,18 +3684,18 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.6525749423520369</v>
+        <v>0.5311666666666667</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3980014927307278</v>
+        <v>0.2587964969781705</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9155378964323848</v>
+        <v>0.7823715334012888</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3582,18 +3718,18 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.6249039200614911</v>
+        <v>0.523</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3832503298893974</v>
+        <v>0.2319904612360945</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9083154654546908</v>
+        <v>0.7612562009282126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3616,18 +3752,18 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.5780169100691775</v>
+        <v>0.515</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3611529493521016</v>
+        <v>0.2105572599099486</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8809620024020699</v>
+        <v>0.7386314694743313</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3646,22 +3782,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fedmechw</t>
+          <t>simpleavg</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.8657442992569818</v>
+        <v>0.516</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7445695234526547</v>
+        <v>0.2213446186173028</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9827940009253894</v>
+        <v>0.7411077766827221</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3680,22 +3816,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fedmechw</t>
+          <t>simpleavg</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.8603638227004868</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="G18" t="n">
-        <v>0.731141217356423</v>
+        <v>0.2189009566599191</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9817018965656397</v>
+        <v>0.7354660916211708</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -3714,22 +3850,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fedmechw</t>
+          <t>simpleavg</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.8544709198052779</v>
+        <v>0.5026666666666667</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7363328617154257</v>
+        <v>0.1964000915717832</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9815657012106122</v>
+        <v>0.7017274958812596</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -3752,18 +3888,18 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.8537022802972073</v>
+        <v>0.5585</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7318035648483129</v>
+        <v>0.3081318806900167</v>
       </c>
       <c r="H20" t="n">
-        <v>0.980071777312137</v>
+        <v>0.8136589278635641</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -3786,18 +3922,18 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.8411478349987189</v>
+        <v>0.555</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7247301396966973</v>
+        <v>0.3003127444307656</v>
       </c>
       <c r="H21" t="n">
-        <v>0.978139353863101</v>
+        <v>0.812337576066737</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -3816,22 +3952,22 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>fedmechw_p</t>
+          <t>fedmechw</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.8657442992569818</v>
+        <v>0.5551666666666667</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7445695234526547</v>
+        <v>0.3010892874030328</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9827940009253894</v>
+        <v>0.8147229909878989</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -3850,22 +3986,22 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>fedmechw_p</t>
+          <t>fedmechw</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.8603638227004868</v>
+        <v>0.5556666666666668</v>
       </c>
       <c r="G23" t="n">
-        <v>0.731141217356423</v>
+        <v>0.2952709096878693</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9817018965656397</v>
+        <v>0.8138331035392951</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -3884,22 +4020,22 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>fedmechw_p</t>
+          <t>fedmechw</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.8544709198052779</v>
+        <v>0.5538333333333334</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7363328617154257</v>
+        <v>0.2900507403155437</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9815657012106122</v>
+        <v>0.8119122839550501</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -3918,22 +4054,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>fedmechw_p</t>
+          <t>fedmechw</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.8537022802972073</v>
+        <v>0.5485</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7318035648483129</v>
+        <v>0.2763699179317445</v>
       </c>
       <c r="H25" t="n">
-        <v>0.980071777312137</v>
+        <v>0.8081700594085203</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -3956,18 +4092,18 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.8547271329746349</v>
+        <v>0.5568333333333334</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6290064873360813</v>
+        <v>0.3023105542195011</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9809651788282457</v>
+        <v>0.8135288227797463</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -3990,18 +4126,18 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.8506277222649244</v>
+        <v>0.5539999999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6407794155407313</v>
+        <v>0.3031922733015097</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9812535889009144</v>
+        <v>0.8122957233635582</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -4020,22 +4156,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>fedmechw_new</t>
+          <t>fedmechw_p</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.8624135280553421</v>
+        <v>0.5539999999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7477118390559045</v>
+        <v>0.2948920658447343</v>
       </c>
       <c r="H28" t="n">
-        <v>0.981852922942136</v>
+        <v>0.8148390533940949</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -4054,22 +4190,22 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>fedmechw_new</t>
+          <t>fedmechw_p</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.8603638227004868</v>
+        <v>0.5553333333333333</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7421154288010575</v>
+        <v>0.2974785300275412</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9823385937212401</v>
+        <v>0.8126387525916207</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -4088,22 +4224,22 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>fedmechw_new</t>
+          <t>fedmechw_p</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.8506277222649244</v>
+        <v>0.555</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7224177123342717</v>
+        <v>0.2935580024517766</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9814886567800274</v>
+        <v>0.8140479511903429</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -4122,22 +4258,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>fedmechw_new</t>
+          <t>fedmechw_p</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.8519087881117088</v>
+        <v>0.5518333333333333</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7340920908207235</v>
+        <v>0.2786209019327728</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9816160422173272</v>
+        <v>0.8077785270808207</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -4160,47 +4296,183 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.851652574942352</v>
+        <v>0.5511666666666667</v>
       </c>
       <c r="G32" t="n">
-        <v>0.714949914026921</v>
+        <v>0.3004074122020232</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9795824807500416</v>
+        <v>0.8083139377530467</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>sample-evenly</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>mnar_lr@sp=extremel1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.5 0.5</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>fedmechw_new</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.5518333333333334</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.3011843689320793</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8131237323741622</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>sample-evenly</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>mnar_lr@sp=extremel1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.5 0.5</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>fedmechw_new</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.5528333333333334</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.2922947572342097</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.8112611149148058</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>9</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>sample-evenly</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>mnar_lr@sp=extremel1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.5 0.5</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>fedmechw_new</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.5531666666666667</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.28989825033058</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.8112582178053511</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>11</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>sample-evenly</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>mnar_lr@sp=extremel1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.5 0.5</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>fedmechw_new</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.5501666666666667</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.2895137251366682</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.8101296657014693</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
         <v>15</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>sample-evenly</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>sample-evenly</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>mnar_lr@sp=extremel1</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.5 0.5</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.5 0.5</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>fedmechw_new</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>0.8419164745067896</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.6818434612293895</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.9784807123553474</v>
+      <c r="F37" t="n">
+        <v>0.5506666666666667</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.2753370523483129</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.8043420384888993</v>
       </c>
     </row>
   </sheetData>

--- a/result_pred.xlsx
+++ b/result_pred.xlsx
@@ -502,13 +502,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.448</v>
+        <v>0.7504999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1344907304099668</v>
+        <v>0.1619318181818182</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6383291487974773</v>
+        <v>0.5767591144981502</v>
       </c>
     </row>
     <row r="3">
@@ -536,13 +536,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.474</v>
+        <v>0.7504999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1890953682439587</v>
+        <v>0.2444987775061125</v>
       </c>
       <c r="H3" t="n">
-        <v>0.715427759399224</v>
+        <v>0.5956349741454928</v>
       </c>
     </row>
     <row r="4">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.5014999999999999</v>
+        <v>0.755</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1975244937210691</v>
+        <v>0.2437810945273632</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7369293880300516</v>
+        <v>0.5987130823939685</v>
       </c>
     </row>
     <row r="5">
@@ -604,13 +604,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.498</v>
+        <v>0.751</v>
       </c>
       <c r="G5" t="n">
-        <v>0.183929645998031</v>
+        <v>0.256926952141058</v>
       </c>
       <c r="H5" t="n">
-        <v>0.741699215104726</v>
+        <v>0.5945535307790798</v>
       </c>
     </row>
     <row r="6">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.4695</v>
+        <v>0.7504999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1305351118462572</v>
+        <v>0.2672413793103448</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7258194016678686</v>
+        <v>0.6121189747916886</v>
       </c>
     </row>
     <row r="7">
@@ -672,13 +672,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.495</v>
+        <v>0.7504999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>0.14990038238958</v>
+        <v>0.2914798206278027</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7124023417366621</v>
+        <v>0.6209861428386421</v>
       </c>
     </row>
     <row r="8">
@@ -706,13 +706,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.491</v>
+        <v>0.7534999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1479692496238897</v>
+        <v>0.3088418430884184</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6912341537188228</v>
+        <v>0.6206470235607791</v>
       </c>
     </row>
     <row r="9">
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.416</v>
+        <v>0.7504999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08674757534681161</v>
+        <v>0.003992015968063872</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6472431674108773</v>
+        <v>0.5534733691233232</v>
       </c>
     </row>
     <row r="10">
@@ -774,13 +774,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.435</v>
+        <v>0.7504999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1189649543009839</v>
+        <v>0.04198473282442748</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6680902806549981</v>
+        <v>0.5605134319271454</v>
       </c>
     </row>
     <row r="11">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.468</v>
+        <v>0.7504999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>0.150765249096585</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7027257012054148</v>
+        <v>0.5815568512107493</v>
       </c>
     </row>
     <row r="12">
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.4985</v>
+        <v>0.752</v>
       </c>
       <c r="G12" t="n">
-        <v>0.175228212884893</v>
+        <v>0.1445378151260504</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7402037402149325</v>
+        <v>0.602107612960765</v>
       </c>
     </row>
     <row r="13">
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.49</v>
+        <v>0.753</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1625251184055212</v>
+        <v>0.1747269890795632</v>
       </c>
       <c r="H13" t="n">
-        <v>0.745384812700438</v>
+        <v>0.6167151090989441</v>
       </c>
     </row>
     <row r="14">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.49</v>
+        <v>0.751</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1564054903155185</v>
+        <v>0.1317567567567567</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7590371747198068</v>
+        <v>0.6321570522791086</v>
       </c>
     </row>
     <row r="15">
@@ -944,13 +944,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.474</v>
+        <v>0.7524999999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1396140435566165</v>
+        <v>0.09236234458259325</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7089349264448703</v>
+        <v>0.6361644007535391</v>
       </c>
     </row>
     <row r="16">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.414</v>
+        <v>0.7504999999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08503892571947214</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6522812907655638</v>
+        <v>0.5565908632721805</v>
       </c>
     </row>
     <row r="17">
@@ -1012,13 +1012,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.5165</v>
+        <v>0.7504999999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2156469749070456</v>
+        <v>0.0633147113594041</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7383858921221869</v>
+        <v>0.6021890549920627</v>
       </c>
     </row>
     <row r="18">
@@ -1046,13 +1046,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.5285</v>
+        <v>0.7504999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2527401522425323</v>
+        <v>0.2081447963800905</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7861480665408592</v>
+        <v>0.6339968411172778</v>
       </c>
     </row>
     <row r="19">
@@ -1080,13 +1080,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.537</v>
+        <v>0.754</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2740208714258959</v>
+        <v>0.3142201834862385</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7979231344471774</v>
+        <v>0.6471570723058376</v>
       </c>
     </row>
     <row r="20">
@@ -1114,13 +1114,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.5305</v>
+        <v>0.7544999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2533372753688963</v>
+        <v>0.3239436619718309</v>
       </c>
       <c r="H20" t="n">
-        <v>0.786613966891453</v>
+        <v>0.6457525310447678</v>
       </c>
     </row>
     <row r="21">
@@ -1148,13 +1148,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.503</v>
+        <v>0.7534999999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>0.196127457048257</v>
+        <v>0.2875816993464053</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7806844474463664</v>
+        <v>0.6424107375310247</v>
       </c>
     </row>
     <row r="22">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.4415</v>
+        <v>0.752</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1149400131365586</v>
+        <v>0.1074523396880416</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7021889865162508</v>
+        <v>0.6320021789081161</v>
       </c>
     </row>
     <row r="23">
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.428</v>
+        <v>0.7504999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1026312947399822</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.651765285955599</v>
+        <v>0.5541395916416444</v>
       </c>
     </row>
     <row r="24">
@@ -1250,13 +1250,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.7534999999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2972142818100914</v>
+        <v>0.3190476190476191</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8156596960810276</v>
+        <v>0.6677886085295174</v>
       </c>
     </row>
     <row r="25">
@@ -1284,13 +1284,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.555</v>
+        <v>0.754</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2947947457107962</v>
+        <v>0.2979242979242979</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8149767691704791</v>
+        <v>0.6666323987081424</v>
       </c>
     </row>
     <row r="26">
@@ -1318,13 +1318,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.554</v>
+        <v>0.754</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2888658742566051</v>
+        <v>0.3359288097886541</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8181898807208019</v>
+        <v>0.6703079710386796</v>
       </c>
     </row>
     <row r="27">
@@ -1352,13 +1352,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.553</v>
+        <v>0.754</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2925948063875044</v>
+        <v>0.3368176538908246</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8175561751757264</v>
+        <v>0.6686350716089074</v>
       </c>
     </row>
     <row r="28">
@@ -1386,13 +1386,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.552</v>
+        <v>0.755</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3017924444250434</v>
+        <v>0.3532110091743119</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8172656147562199</v>
+        <v>0.6709555019432603</v>
       </c>
     </row>
     <row r="29">
@@ -1420,13 +1420,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.473</v>
+        <v>0.7514999999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1385785042751916</v>
+        <v>0.08228980322003578</v>
       </c>
       <c r="H29" t="n">
-        <v>0.7088268510998291</v>
+        <v>0.6299995060073512</v>
       </c>
     </row>
     <row r="30">
@@ -1454,13 +1454,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.4175</v>
+        <v>0.7504999999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>0.08975045632232981</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.6634359474880939</v>
+        <v>0.5508552080843899</v>
       </c>
     </row>
     <row r="31">
@@ -1488,13 +1488,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.556</v>
+        <v>0.7534999999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2956973714456111</v>
+        <v>0.3526834611171961</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8153571494954125</v>
+        <v>0.6692318681333354</v>
       </c>
     </row>
     <row r="32">
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.552</v>
+        <v>0.7534999999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2922660845885929</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8154470386141472</v>
+        <v>0.667422786946311</v>
       </c>
     </row>
     <row r="33">
@@ -1556,13 +1556,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.553</v>
+        <v>0.754</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2944647529038275</v>
+        <v>0.2947903430749683</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8198917819027076</v>
+        <v>0.6706537658928783</v>
       </c>
     </row>
     <row r="34">
@@ -1590,13 +1590,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.5555</v>
+        <v>0.7544999999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2941815650894229</v>
+        <v>0.3614190687361419</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8180258869639183</v>
+        <v>0.668836674014251</v>
       </c>
     </row>
     <row r="35">
@@ -1624,13 +1624,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.553</v>
+        <v>0.7554999999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3011418790541951</v>
+        <v>0.3406720741599073</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8173432573213804</v>
+        <v>0.6662158427447833</v>
       </c>
     </row>
     <row r="36">
@@ -1658,13 +1658,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.462</v>
+        <v>0.7524999999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1311858865403991</v>
+        <v>0.1487341772151899</v>
       </c>
       <c r="H36" t="n">
-        <v>0.696153074931171</v>
+        <v>0.6349140653058282</v>
       </c>
     </row>
     <row r="37">
@@ -1692,13 +1692,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.4288333333333333</v>
+        <v>0.7505000000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1042761710810422</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6470498076276342</v>
+        <v>0.552219250849022</v>
       </c>
     </row>
     <row r="38">
@@ -1726,13 +1726,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.5503333333333333</v>
+        <v>0.7521666666666667</v>
       </c>
       <c r="G38" t="n">
-        <v>0.289440669800828</v>
+        <v>0.2323121233433229</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8109079741495746</v>
+        <v>0.6633124120770967</v>
       </c>
     </row>
     <row r="39">
@@ -1760,13 +1760,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.5511666666666667</v>
+        <v>0.7515000000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2918223302410354</v>
+        <v>0.2027982645011902</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8142393869420798</v>
+        <v>0.6645109005485988</v>
       </c>
     </row>
     <row r="40">
@@ -1794,13 +1794,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.554</v>
+        <v>0.7521666666666667</v>
       </c>
       <c r="G40" t="n">
-        <v>0.300015397794525</v>
+        <v>0.21083259699902</v>
       </c>
       <c r="H40" t="n">
-        <v>0.816964493709685</v>
+        <v>0.6651677772600497</v>
       </c>
     </row>
     <row r="41">
@@ -1828,13 +1828,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.5569999999999999</v>
+        <v>0.7524999999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>0.298671681338512</v>
+        <v>0.2081170474052058</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8174643507903974</v>
+        <v>0.6641392934659014</v>
       </c>
     </row>
     <row r="42">
@@ -1862,13 +1862,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.5538333333333334</v>
+        <v>0.7534999999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2976472762325904</v>
+        <v>0.2295821152773015</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8154550775812986</v>
+        <v>0.6626929185931267</v>
       </c>
     </row>
     <row r="43">
@@ -1896,13 +1896,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.4418333333333333</v>
+        <v>0.7511666666666666</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1138739804508365</v>
+        <v>0.006624338624338624</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6916499422655121</v>
+        <v>0.6232202357190508</v>
       </c>
     </row>
   </sheetData>
@@ -1991,13 +1991,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.4935</v>
+        <v>0.7523333333333332</v>
       </c>
       <c r="G2" t="n">
-        <v>0.181901510042158</v>
+        <v>0.2020007471933545</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7374915137545601</v>
+        <v>0.6388651164198261</v>
       </c>
     </row>
     <row r="3">
@@ -2025,13 +2025,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.4596666666666667</v>
+        <v>0.751</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1345918313680214</v>
+        <v>0.2534441629569524</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7190361098211846</v>
+        <v>0.6283395126918282</v>
       </c>
     </row>
     <row r="4">
@@ -2059,13 +2059,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.49</v>
+        <v>0.7514999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1499055934012822</v>
+        <v>0.1888008703249736</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7174162621606056</v>
+        <v>0.6376902149847107</v>
       </c>
     </row>
     <row r="5">
@@ -2093,13 +2093,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.4811666666666667</v>
+        <v>0.7508333333333331</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1677503885344201</v>
+        <v>0.262419383895777</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7147414852966206</v>
+        <v>0.6286261174358488</v>
       </c>
     </row>
     <row r="6">
@@ -2127,13 +2127,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.459</v>
+        <v>0.7516666666666666</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1524094988975314</v>
+        <v>0.2299723156165626</v>
       </c>
       <c r="H6" t="n">
-        <v>0.713517066536097</v>
+        <v>0.6306982163305069</v>
       </c>
     </row>
     <row r="7">
@@ -2161,13 +2161,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.4823333333333333</v>
+        <v>0.7511666666666666</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1429987469092972</v>
+        <v>0.2519426323368515</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6986060392244019</v>
+        <v>0.6295455668165112</v>
       </c>
     </row>
     <row r="8">
@@ -2195,13 +2195,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.4921666666666666</v>
+        <v>0.7523333333333334</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1865848526476379</v>
+        <v>0.2742002864148796</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7535630095085706</v>
+        <v>0.6356873195647347</v>
       </c>
     </row>
     <row r="9">
@@ -2229,13 +2229,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.4715</v>
+        <v>0.7528333333333332</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1607286210301936</v>
+        <v>0.1910954927052706</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7465163233463631</v>
+        <v>0.6324058287572258</v>
       </c>
     </row>
     <row r="10">
@@ -2263,13 +2263,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.475</v>
+        <v>0.7534999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1649829699062781</v>
+        <v>0.1891075275391725</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7558703529729246</v>
+        <v>0.6376417057966699</v>
       </c>
     </row>
     <row r="11">
@@ -2297,13 +2297,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.4961666666666666</v>
+        <v>0.7525000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1826063130909947</v>
+        <v>0.1530894296707652</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7597059756671709</v>
+        <v>0.6261387976930989</v>
       </c>
     </row>
     <row r="12">
@@ -2331,13 +2331,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.4876666666666667</v>
+        <v>0.7516666666666666</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1622406660668752</v>
+        <v>0.1302632320766115</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7513121502970003</v>
+        <v>0.6379314258096472</v>
       </c>
     </row>
     <row r="13">
@@ -2365,13 +2365,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.4898333333333333</v>
+        <v>0.751</v>
       </c>
       <c r="G13" t="n">
-        <v>0.163408174338883</v>
+        <v>0.0594259020997839</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7451787613635292</v>
+        <v>0.6266341254572213</v>
       </c>
     </row>
     <row r="14">
@@ -2399,13 +2399,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.529</v>
+        <v>0.751</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2676451445850855</v>
+        <v>0.2318949846093477</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7968223634445969</v>
+        <v>0.6520578354132205</v>
       </c>
     </row>
     <row r="15">
@@ -2433,13 +2433,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.5111666666666667</v>
+        <v>0.7516666666666666</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2171910879918964</v>
+        <v>0.1836177838566828</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7720721627163135</v>
+        <v>0.6490800833289941</v>
       </c>
     </row>
     <row r="16">
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.5113333333333333</v>
+        <v>0.7524999999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2089148175822267</v>
+        <v>0.1792305996323869</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7707189405574343</v>
+        <v>0.65228658516233</v>
       </c>
     </row>
     <row r="17">
@@ -2501,13 +2501,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.5051666666666667</v>
+        <v>0.7553333333333333</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2031841190103694</v>
+        <v>0.2163855315113496</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7749873126204867</v>
+        <v>0.6478718040121995</v>
       </c>
     </row>
     <row r="18">
@@ -2535,13 +2535,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.5071666666666667</v>
+        <v>0.7551666666666667</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1860253317683536</v>
+        <v>0.1853239497139927</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7724823741998139</v>
+        <v>0.6492669994663989</v>
       </c>
     </row>
     <row r="19">
@@ -2569,13 +2569,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.5009999999999999</v>
+        <v>0.7548333333333334</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1790029869846872</v>
+        <v>0.07930785958372165</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7680718309366851</v>
+        <v>0.646435887542351</v>
       </c>
     </row>
     <row r="20">
@@ -2603,13 +2603,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.554</v>
+        <v>0.7524999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3056545660071819</v>
+        <v>0.2706294909857579</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8148662707662734</v>
+        <v>0.6695959095628522</v>
       </c>
     </row>
     <row r="21">
@@ -2637,13 +2637,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.556</v>
+        <v>0.7516666666666666</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3102726592021182</v>
+        <v>0.2948504784643729</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8154820830739707</v>
+        <v>0.6668526927272266</v>
       </c>
     </row>
     <row r="22">
@@ -2671,13 +2671,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.5575</v>
+        <v>0.7528333333333332</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3025715825965475</v>
+        <v>0.242752596533392</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8172459788831121</v>
+        <v>0.6673391197229014</v>
       </c>
     </row>
     <row r="23">
@@ -2705,13 +2705,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.5533333333333333</v>
+        <v>0.7543333333333333</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2927646184244238</v>
+        <v>0.2101344147985939</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8153676517344742</v>
+        <v>0.6652888277109404</v>
       </c>
     </row>
     <row r="24">
@@ -2739,13 +2739,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.5528333333333334</v>
+        <v>0.7541666666666668</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2905863762473427</v>
+        <v>0.2197182133277099</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8134632951876863</v>
+        <v>0.6677556756862604</v>
       </c>
     </row>
     <row r="25">
@@ -2773,13 +2773,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.5473333333333333</v>
+        <v>0.7533333333333333</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2786406946267253</v>
+        <v>0.2416779556903086</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8124397259291577</v>
+        <v>0.6627396476274778</v>
       </c>
     </row>
     <row r="26">
@@ -2807,13 +2807,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.5539999999999999</v>
+        <v>0.7524999999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3102593002102733</v>
+        <v>0.2706294909857579</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8134361792589213</v>
+        <v>0.6695959095628522</v>
       </c>
     </row>
     <row r="27">
@@ -2841,13 +2841,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.5538333333333334</v>
+        <v>0.7516666666666666</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3014252141548323</v>
+        <v>0.2948504784643729</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8147759661435945</v>
+        <v>0.6668526927272266</v>
       </c>
     </row>
     <row r="28">
@@ -2875,13 +2875,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.5581666666666667</v>
+        <v>0.7528333333333332</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3009188648063534</v>
+        <v>0.242752596533392</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8181079196842606</v>
+        <v>0.6673391197229014</v>
       </c>
     </row>
     <row r="29">
@@ -2909,13 +2909,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.5535</v>
+        <v>0.7543333333333333</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2957084220939024</v>
+        <v>0.2101344147985939</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8164603493285022</v>
+        <v>0.6652888277109404</v>
       </c>
     </row>
     <row r="30">
@@ -2943,13 +2943,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.553</v>
+        <v>0.7541666666666668</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2928617985329821</v>
+        <v>0.2197182133277099</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8145631944064178</v>
+        <v>0.6677556756862604</v>
       </c>
     </row>
     <row r="31">
@@ -2977,13 +2977,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.5485000000000001</v>
+        <v>0.7533333333333333</v>
       </c>
       <c r="G31" t="n">
-        <v>0.279927103182079</v>
+        <v>0.2416779556903086</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8127490306952959</v>
+        <v>0.6627396476274778</v>
       </c>
     </row>
     <row r="32">
@@ -3011,13 +3011,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.5539999999999999</v>
+        <v>0.7533333333333333</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3002540277365897</v>
+        <v>0.2798278849171925</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8133790369963892</v>
+        <v>0.678457959667948</v>
       </c>
     </row>
     <row r="33">
@@ -3045,13 +3045,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.5523333333333335</v>
+        <v>0.7524999999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3024578872077411</v>
+        <v>0.2968990165491105</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8145751658556429</v>
+        <v>0.6673351143770998</v>
       </c>
     </row>
     <row r="34">
@@ -3079,13 +3079,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.5593333333333333</v>
+        <v>0.7533333333333333</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3078778960390482</v>
+        <v>0.2288032870075056</v>
       </c>
       <c r="H34" t="n">
-        <v>0.817698636322214</v>
+        <v>0.6658544715458009</v>
       </c>
     </row>
     <row r="35">
@@ -3113,13 +3113,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.5531666666666667</v>
+        <v>0.7534999999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>0.294053512127618</v>
+        <v>0.2200913176853846</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8165524001931791</v>
+        <v>0.6653845109717547</v>
       </c>
     </row>
     <row r="36">
@@ -3147,13 +3147,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.5525</v>
+        <v>0.7538333333333332</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2940223370062675</v>
+        <v>0.2231753977523392</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8156052075655594</v>
+        <v>0.6672461066926213</v>
       </c>
     </row>
     <row r="37">
@@ -3181,13 +3181,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.5503333333333332</v>
+        <v>0.7538333333333332</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2787588242203769</v>
+        <v>0.2293552032536121</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8128186307253537</v>
+        <v>0.6624223352323123</v>
       </c>
     </row>
   </sheetData>
@@ -3276,13 +3276,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.5093333333333333</v>
+        <v>0.751</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1957017406411137</v>
+        <v>0.1842836419695087</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7421812071439753</v>
+        <v>0.6020008037393908</v>
       </c>
     </row>
     <row r="3">
@@ -3310,13 +3310,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.4938333333333333</v>
+        <v>0.7520000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1911667046528904</v>
+        <v>0.2281371757078564</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7311729259765309</v>
+        <v>0.5991979517551648</v>
       </c>
     </row>
     <row r="4">
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.4809999999999999</v>
+        <v>0.7528333333333334</v>
       </c>
       <c r="G4" t="n">
-        <v>0.184597607164331</v>
+        <v>0.2466595999502239</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7241818712356031</v>
+        <v>0.5833643747632952</v>
       </c>
     </row>
     <row r="5">
@@ -3378,13 +3378,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.4823333333333333</v>
+        <v>0.7511666666666666</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1819687838520327</v>
+        <v>0.2617623505950346</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7175644692092812</v>
+        <v>0.5808459023309778</v>
       </c>
     </row>
     <row r="6">
@@ -3412,13 +3412,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.478</v>
+        <v>0.7516666666666666</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1793376869948257</v>
+        <v>0.1240215310296173</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7107199495833866</v>
+        <v>0.5621783206653146</v>
       </c>
     </row>
     <row r="7">
@@ -3446,13 +3446,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.472</v>
+        <v>0.751</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1817359345664207</v>
+        <v>0.1633039118929046</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7083216257445625</v>
+        <v>0.570532581930461</v>
       </c>
     </row>
     <row r="8">
@@ -3480,13 +3480,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.4956666666666666</v>
+        <v>0.7513333333333332</v>
       </c>
       <c r="G8" t="n">
-        <v>0.18477375632836</v>
+        <v>0.2559647964298159</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7345292538934559</v>
+        <v>0.6134881354981782</v>
       </c>
     </row>
     <row r="9">
@@ -3514,13 +3514,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.4586666666666666</v>
+        <v>0.7508333333333331</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1579423577847225</v>
+        <v>0.1705257130287794</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6975234823169355</v>
+        <v>0.5936398668979086</v>
       </c>
     </row>
     <row r="10">
@@ -3548,13 +3548,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.449</v>
+        <v>0.7516666666666666</v>
       </c>
       <c r="G10" t="n">
-        <v>0.147225363881676</v>
+        <v>0.1217109299328775</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6923374804380961</v>
+        <v>0.5839972193999369</v>
       </c>
     </row>
     <row r="11">
@@ -3582,13 +3582,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.4448333333333334</v>
+        <v>0.7506666666666666</v>
       </c>
       <c r="G11" t="n">
-        <v>0.147264931062964</v>
+        <v>0.1061817638120467</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6970337000171779</v>
+        <v>0.5802121676174913</v>
       </c>
     </row>
     <row r="12">
@@ -3616,13 +3616,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.4403333333333334</v>
+        <v>0.7515000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.128250661090849</v>
+        <v>0.06016497142021404</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6826079444557779</v>
+        <v>0.5711364990696471</v>
       </c>
     </row>
     <row r="13">
@@ -3650,13 +3650,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.4381666666666666</v>
+        <v>0.7508333333333334</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1219405437570778</v>
+        <v>0.04651569161948696</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6769028883963145</v>
+        <v>0.5776313898060389</v>
       </c>
     </row>
     <row r="14">
@@ -3684,13 +3684,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.5311666666666667</v>
+        <v>0.7525000000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2587964969781705</v>
+        <v>0.1964011392859602</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7823715334012888</v>
+        <v>0.6435682824676668</v>
       </c>
     </row>
     <row r="15">
@@ -3718,13 +3718,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.523</v>
+        <v>0.7523333333333334</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2319904612360945</v>
+        <v>0.1207298913911363</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7612562009282126</v>
+        <v>0.6340113048660057</v>
       </c>
     </row>
     <row r="16">
@@ -3752,13 +3752,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.515</v>
+        <v>0.7511666666666666</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2105572599099486</v>
+        <v>0.05021310698564652</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7386314694743313</v>
+        <v>0.6183577459159936</v>
       </c>
     </row>
     <row r="17">
@@ -3786,13 +3786,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.516</v>
+        <v>0.7506666666666666</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2213446186173028</v>
+        <v>0.005259697567389874</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7411077766827221</v>
+        <v>0.6160177338910555</v>
       </c>
     </row>
     <row r="18">
@@ -3820,13 +3820,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.7514999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2189009566599191</v>
+        <v>0.01057680320715968</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7354660916211708</v>
+        <v>0.6060969373790887</v>
       </c>
     </row>
     <row r="19">
@@ -3854,13 +3854,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.5026666666666667</v>
+        <v>0.7505000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1964000915717832</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7017274958812596</v>
+        <v>0.6080315194012276</v>
       </c>
     </row>
     <row r="20">
@@ -3888,13 +3888,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.5585</v>
+        <v>0.7528333333333332</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3081318806900167</v>
+        <v>0.2678433515739402</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8136589278635641</v>
+        <v>0.6706154925885527</v>
       </c>
     </row>
     <row r="21">
@@ -3922,13 +3922,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.555</v>
+        <v>0.7523333333333334</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3003127444307656</v>
+        <v>0.2785429929547577</v>
       </c>
       <c r="H21" t="n">
-        <v>0.812337576066737</v>
+        <v>0.6649047595524159</v>
       </c>
     </row>
     <row r="22">
@@ -3956,13 +3956,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.5551666666666667</v>
+        <v>0.7516666666666666</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3010892874030328</v>
+        <v>0.2145965495460379</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8147229909878989</v>
+        <v>0.662652420096689</v>
       </c>
     </row>
     <row r="23">
@@ -3990,13 +3990,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.5556666666666668</v>
+        <v>0.7531666666666667</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2952709096878693</v>
+        <v>0.2213394878762203</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8138331035392951</v>
+        <v>0.664236311841983</v>
       </c>
     </row>
     <row r="24">
@@ -4024,13 +4024,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.5538333333333334</v>
+        <v>0.7523333333333332</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2900507403155437</v>
+        <v>0.2179444577171624</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8119122839550501</v>
+        <v>0.6621481915641187</v>
       </c>
     </row>
     <row r="25">
@@ -4058,13 +4058,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.5485</v>
+        <v>0.7516666666666666</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2763699179317445</v>
+        <v>0.2035681463056974</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8081700594085203</v>
+        <v>0.6603121855525397</v>
       </c>
     </row>
     <row r="26">
@@ -4092,13 +4092,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.5568333333333334</v>
+        <v>0.7528333333333332</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3023105542195011</v>
+        <v>0.2678433515739402</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8135288227797463</v>
+        <v>0.6706154925885527</v>
       </c>
     </row>
     <row r="27">
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.5539999999999999</v>
+        <v>0.7523333333333334</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3031922733015097</v>
+        <v>0.2785429929547577</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8122957233635582</v>
+        <v>0.6649047595524159</v>
       </c>
     </row>
     <row r="28">
@@ -4160,13 +4160,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.5539999999999999</v>
+        <v>0.7516666666666666</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2948920658447343</v>
+        <v>0.2145965495460379</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8148390533940949</v>
+        <v>0.662652420096689</v>
       </c>
     </row>
     <row r="29">
@@ -4194,13 +4194,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.5553333333333333</v>
+        <v>0.7531666666666667</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2974785300275412</v>
+        <v>0.2213394878762203</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8126387525916207</v>
+        <v>0.664236311841983</v>
       </c>
     </row>
     <row r="30">
@@ -4228,13 +4228,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.555</v>
+        <v>0.7523333333333332</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2935580024517766</v>
+        <v>0.2179444577171624</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8140479511903429</v>
+        <v>0.6621481915641187</v>
       </c>
     </row>
     <row r="31">
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.5518333333333333</v>
+        <v>0.7516666666666666</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2786209019327728</v>
+        <v>0.2035681463056974</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8077785270808207</v>
+        <v>0.6603121855525397</v>
       </c>
     </row>
     <row r="32">
@@ -4296,13 +4296,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.5511666666666667</v>
+        <v>0.7521666666666667</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3004074122020232</v>
+        <v>0.2761922351010441</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8083139377530467</v>
+        <v>0.6692834925903327</v>
       </c>
     </row>
     <row r="33">
@@ -4330,13 +4330,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.5518333333333334</v>
+        <v>0.7513333333333333</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3011843689320793</v>
+        <v>0.2383091992039694</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8131237323741622</v>
+        <v>0.6619950983468158</v>
       </c>
     </row>
     <row r="34">
@@ -4364,13 +4364,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.5528333333333334</v>
+        <v>0.7518333333333334</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2922947572342097</v>
+        <v>0.2488048292226428</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8112611149148058</v>
+        <v>0.6652536696755714</v>
       </c>
     </row>
     <row r="35">
@@ -4398,13 +4398,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.5531666666666667</v>
+        <v>0.7524999999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>0.28989825033058</v>
+        <v>0.2094684085558012</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8112582178053511</v>
+        <v>0.6647772560444006</v>
       </c>
     </row>
     <row r="36">
@@ -4432,13 +4432,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.5501666666666667</v>
+        <v>0.7526666666666667</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2895137251366682</v>
+        <v>0.2159925921599557</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8101296657014693</v>
+        <v>0.6616984802382914</v>
       </c>
     </row>
     <row r="37">
@@ -4466,13 +4466,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.5506666666666667</v>
+        <v>0.7518333333333332</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2753370523483129</v>
+        <v>0.2097294388579805</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8043420384888993</v>
+        <v>0.6592830342007577</v>
       </c>
     </row>
   </sheetData>
